--- a/Drinks/Lassi.xlsx
+++ b/Drinks/Lassi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\Drinks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DA9910-41F2-41D0-BB7B-CC52B5B29EB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB477098-FA32-4756-8A91-4D818859D34E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8CBC1288-2A94-44F0-92DE-D9C7067027C5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>How many servings</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>rating</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
 </sst>
 </file>
@@ -372,10 +375,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9263EE1F-FC56-45D7-9F5A-ECAA546493DB}" name="Table2" displayName="Table2" ref="F1:F22" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="F1:F22" xr:uid="{A4865FE7-1932-4D74-8381-A5996C21E49E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9263EE1F-FC56-45D7-9F5A-ECAA546493DB}" name="Table2" displayName="Table2" ref="F2:F23" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="F2:F23" xr:uid="{A4865FE7-1932-4D74-8381-A5996C21E49E}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C59BDF16-BFE5-445B-98A4-903C982F35D3}" name="Base Recipe"/>
+    <tableColumn id="1" xr3:uid="{C59BDF16-BFE5-445B-98A4-903C982F35D3}" name="2.5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -745,7 +748,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,8 +807,8 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
-        <v>2.5</v>
+      <c r="F2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>2</v>
@@ -823,7 +826,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="7">
-        <f t="shared" ref="B3:B6" si="0">E2*F3/G3</f>
+        <f>E2*F3/G3</f>
         <v>2.75</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -845,7 +848,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="7">
-        <f t="shared" si="0"/>
+        <f>E3*F4/G4</f>
         <v>4.5</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -873,7 +876,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="7">
-        <f t="shared" si="0"/>
+        <f>E4*F5/G5</f>
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -895,7 +898,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="7">
-        <f t="shared" si="0"/>
+        <f>E5*F6/G6</f>
         <v>0.125</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -918,7 +921,6 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -945,22 +947,23 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="7"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="7"/>
       <c r="C12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
